--- a/tbx/replications/data_BvV2018.xlsx
+++ b/tbx/replications/data_BvV2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFA960-BFBC-49F5-9956-9646E9574DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6D5D0C-19B1-4624-81D5-1F47D75E0BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="877" firstSheet="10" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1632">
   <si>
     <t>1999q1</t>
   </si>
@@ -4659,9 +4659,6 @@
       </rPr>
       <t>, to indicate that variable j does not affect variable  i.</t>
     </r>
-  </si>
-  <si>
-    <t>Enter the condition values for the desired endogenous variables, over the desired forecast periods.</t>
   </si>
   <si>
     <t>US_DOM_GDP</t>
@@ -6292,10 +6289,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>1335</v>
@@ -6304,7 +6301,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B2" s="66">
         <v>1.90395008144742</v>
@@ -6319,7 +6316,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B3" s="66">
         <v>1.19755723316916</v>
@@ -6333,7 +6330,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B4" s="66">
         <v>1.20410385577657</v>
@@ -9289,7 +9286,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B193" s="65">
         <v>0.26762023487071901</v>
@@ -9303,7 +9300,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B194" s="65">
         <v>0.349125886247521</v>
@@ -9317,7 +9314,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B195" s="65">
         <v>0.205025038666236</v>
@@ -9331,7 +9328,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B196" s="65">
         <v>0.344160118209629</v>
@@ -9345,7 +9342,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B197" s="65">
         <v>0.399777476611689</v>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B198" s="65">
         <v>0.23465285745078299</v>
@@ -9373,7 +9370,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B199" s="65">
         <v>0.15294187985705299</v>
@@ -9387,7 +9384,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B200" s="65">
         <v>0.210933157591398</v>
@@ -9401,7 +9398,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B201" s="65">
         <v>0.28636935885674603</v>
@@ -28891,7 +28888,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B74" s="55">
         <v>9.0708139018752512</v>
@@ -28908,7 +28905,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B75" s="55">
         <v>9.0786472886252998</v>
@@ -28925,7 +28922,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B76" s="55">
         <v>9.0860801545954981</v>
@@ -28942,7 +28939,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B77" s="55">
         <v>9.0881953366166819</v>
@@ -28959,7 +28956,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B78" s="55">
         <v>9.0990847364159499</v>
@@ -28976,7 +28973,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B79" s="55">
         <v>9.1029444529562866</v>
@@ -28993,7 +28990,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B80" s="55">
         <v>9.103189365456954</v>
@@ -29010,7 +29007,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B81" s="55">
         <v>9.094637670922447</v>
@@ -29027,7 +29024,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B82" s="55">
         <v>9.0899338981130846</v>
@@ -29044,7 +29041,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B83" s="55">
         <v>9.0976642736879434</v>
@@ -29061,7 +29058,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B84" s="55">
         <v>9.1024544479350666</v>
@@ -29078,7 +29075,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B85" s="55">
         <v>9.1068004203078043</v>
@@ -29095,7 +29092,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B86" s="55">
         <v>9.1185539763454742</v>
@@ -29112,7 +29109,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B87" s="55">
         <v>9.1295098540616344</v>
@@ -29129,7 +29126,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B88" s="55">
         <v>9.1391880276480943</v>
@@ -29146,7 +29143,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B89" s="55">
         <v>9.1491562186511857</v>
@@ -29163,7 +29160,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B90" s="55">
         <v>9.1510255170405017</v>
@@ -29180,7 +29177,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B91" s="55">
         <v>9.1569501437166387</v>
@@ -29197,7 +29194,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B92" s="55">
         <v>9.1618116736215853</v>
@@ -29214,7 +29211,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B93" s="55">
         <v>9.175075822875872</v>
@@ -29231,7 +29228,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B94" s="55">
         <v>9.1848379315637594</v>
@@ -29248,7 +29245,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B95" s="55">
         <v>9.198409481108218</v>
@@ -29265,7 +29262,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B96" s="55">
         <v>9.2042921181086417</v>
@@ -29282,7 +29279,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B97" s="55">
         <v>9.2155766387714291</v>
@@ -29299,7 +29296,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B98" s="55">
         <v>9.2189928312553224</v>
@@ -29316,7 +29313,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B99" s="55">
         <v>9.2224764311956822</v>
@@ -29333,7 +29330,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B100" s="55">
         <v>9.2310053724197658</v>
@@ -29350,7 +29347,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B101" s="55">
         <v>9.2380722637140718</v>
@@ -29367,7 +29364,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B102" s="55">
         <v>9.2446161869399557</v>
@@ -29384,7 +29381,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B103" s="55">
         <v>9.2619266234476161</v>
@@ -29401,7 +29398,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B104" s="55">
         <v>9.2711343912087703</v>
@@ -29418,7 +29415,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B105" s="55">
         <v>9.2816465656688525</v>
@@ -29435,7 +29432,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B106" s="55">
         <v>9.2892347282388634</v>
@@ -29452,7 +29449,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B107" s="55">
         <v>9.3042131555850247</v>
@@ -29469,7 +29466,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B108" s="55">
         <v>9.3168602153538558</v>
@@ -29486,7 +29483,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B109" s="55">
         <v>9.3245882775279174</v>
@@ -29503,7 +29500,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B110" s="55">
         <v>9.3344323532059601</v>
@@ -29520,7 +29517,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B111" s="55">
         <v>9.3440842420257777</v>
@@ -29537,7 +29534,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B112" s="55">
         <v>9.3570865632562175</v>
@@ -29554,7 +29551,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B113" s="55">
         <v>9.3733686717229023</v>
@@ -29571,7 +29568,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B114" s="55">
         <v>9.3813228841001433</v>
@@ -29588,7 +29585,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B115" s="55">
         <v>9.38953203576121</v>
@@ -29605,7 +29602,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B116" s="55">
         <v>9.402042790575889</v>
@@ -29622,7 +29619,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B117" s="55">
         <v>9.4192470583630481</v>
@@ -29639,7 +29636,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B118" s="55">
         <v>9.4221479128265209</v>
@@ -29656,7 +29653,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B119" s="55">
         <v>9.4408566776198057</v>
@@ -29673,7 +29670,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B120" s="55">
         <v>9.4420630173983255</v>
@@ -29690,7 +29687,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B121" s="55">
         <v>9.4477260214200438</v>
@@ -29707,7 +29704,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B122" s="55">
         <v>9.4448827095758201</v>
@@ -29724,7 +29721,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B123" s="55">
         <v>9.4501679673667827</v>
@@ -29741,7 +29738,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B124" s="55">
         <v>9.447000165943864</v>
@@ -29758,7 +29755,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B125" s="55">
         <v>9.4497745082263727</v>
@@ -29775,7 +29772,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B126" s="55">
         <v>9.4589411215594055</v>
@@ -29792,7 +29789,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B127" s="55">
         <v>9.4644398074108373</v>
@@ -29809,7 +29806,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B128" s="55">
         <v>9.4692988433088416</v>
@@ -29826,7 +29823,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B129" s="55">
         <v>9.4699315642614383</v>
@@ -29843,7 +29840,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B130" s="55">
         <v>9.4751017610433959</v>
@@ -29860,7 +29857,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B131" s="55">
         <v>9.4843367206733813</v>
@@ -29877,7 +29874,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B132" s="55">
         <v>9.5009481603441674</v>
@@ -29894,7 +29891,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B133" s="55">
         <v>9.512568633769579</v>
@@ -29911,7 +29908,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B134" s="55">
         <v>9.5183028987231086</v>
@@ -29928,7 +29925,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B135" s="55">
         <v>9.525603564188728</v>
@@ -29945,7 +29942,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B136" s="55">
         <v>9.53465326824975</v>
@@ -29962,7 +29959,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B137" s="55">
         <v>9.5432634606735505</v>
@@ -29979,7 +29976,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B138" s="55">
         <v>9.5538662445418172</v>
@@ -29996,7 +29993,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B139" s="55">
         <v>9.55907285793519</v>
@@ -30013,7 +30010,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B140" s="55">
         <v>9.5674412252026766</v>
@@ -30030,7 +30027,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B141" s="55">
         <v>9.5731345551229357</v>
@@ -30047,7 +30044,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B142" s="55">
         <v>9.5850781954330522</v>
@@ -30064,7 +30061,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B143" s="55">
         <v>9.588064225102622</v>
@@ -30081,7 +30078,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B144" s="55">
         <v>9.5889548740334583</v>
@@ -30098,7 +30095,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B145" s="55">
         <v>9.5967517722779441</v>
@@ -30115,7 +30112,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B146" s="55">
         <v>9.5973699179286616</v>
@@ -30132,7 +30129,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B147" s="55">
         <v>9.6049939118060053</v>
@@ -30149,7 +30146,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B148" s="55">
         <v>9.6116970520398031</v>
@@ -30166,7 +30163,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B149" s="55">
         <v>9.6152586639409794</v>
@@ -30183,7 +30180,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B150" s="55">
         <v>9.6084115455306343</v>
@@ -30200,7 +30197,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B151" s="55">
         <v>9.6133624984332062</v>
@@ -30217,7 +30214,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B152" s="55">
         <v>9.6085525745727782</v>
@@ -30234,7 +30231,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B153" s="55">
         <v>9.5872002230740119</v>
@@ -30251,7 +30248,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B154" s="55">
         <v>9.5732458656655517</v>
@@ -30268,7 +30265,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B155" s="55">
         <v>9.5718953889648581</v>
@@ -30285,7 +30282,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B156" s="55">
         <v>9.5751570816065374</v>
@@ -30302,7 +30299,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B157" s="55">
         <v>9.5847894165531571</v>
@@ -30319,7 +30316,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B158" s="55">
         <v>9.5891055207876477</v>
@@ -30336,7 +30333,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B159" s="55">
         <v>9.5987203570265329</v>
@@ -30353,7 +30350,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B160" s="55">
         <v>9.6054520680048547</v>
@@ -30370,7 +30367,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B161" s="55">
         <v>9.6117305220423166</v>
@@ -30387,7 +30384,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B162" s="55">
         <v>9.6078606701623297</v>
@@ -30404,7 +30401,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B163" s="55">
         <v>9.6151119062843033</v>
@@ -30421,7 +30418,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B164" s="55">
         <v>9.6172111583222755</v>
@@ -30438,7 +30435,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B165" s="55">
         <v>9.6284123452302115</v>
@@ -30455,7 +30452,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B166" s="55">
         <v>9.6350196990081507</v>
@@ -30472,7 +30469,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B167" s="55">
         <v>9.6396782444959026</v>
@@ -30489,7 +30486,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B168" s="55">
         <v>9.640875257311551</v>
@@ -30506,7 +30503,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B169" s="55">
         <v>9.6411027878585092</v>
@@ -30523,7 +30520,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B170" s="55">
         <v>9.6480725856693219</v>
@@ -30540,7 +30537,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B171" s="55">
         <v>9.6499878812070197</v>
@@ -30557,7 +30554,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B172" s="55">
         <v>9.6576701308496133</v>
@@ -30574,7 +30571,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B173" s="55">
         <v>9.6673790685191836</v>
@@ -30591,7 +30588,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B174" s="55">
         <v>9.6644051499204089</v>
@@ -30608,7 +30605,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B175" s="55">
         <v>9.674124701408001</v>
@@ -30625,7 +30622,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B176" s="55">
         <v>9.6862328777020572</v>
@@ -30642,7 +30639,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B177" s="55">
         <v>9.691945196371222</v>
@@ -30712,7 +30709,7 @@
         <v>1458</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31415,10 +31412,10 @@
     <row r="3" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1335</v>
@@ -31430,7 +31427,7 @@
     </row>
     <row r="4" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="50" t="s">
@@ -31444,7 +31441,7 @@
     </row>
     <row r="5" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -31519,10 +31516,10 @@
     <row r="3" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1335</v>
@@ -31534,7 +31531,7 @@
     </row>
     <row r="4" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33" t="s">
@@ -31548,7 +31545,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -31653,43 +31650,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1" t="s">
         <v>1597</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C2" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -31697,10 +31694,10 @@
         <v>1346</v>
       </c>
       <c r="B5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -31708,10 +31705,10 @@
         <v>1347</v>
       </c>
       <c r="B6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -31719,10 +31716,10 @@
         <v>1348</v>
       </c>
       <c r="B7" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C7" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -31730,10 +31727,10 @@
         <v>1349</v>
       </c>
       <c r="B8" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C8" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -31741,10 +31738,10 @@
         <v>1350</v>
       </c>
       <c r="B9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -31752,10 +31749,10 @@
         <v>1351</v>
       </c>
       <c r="B10" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C10" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -31763,10 +31760,10 @@
         <v>1352</v>
       </c>
       <c r="B11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C11" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -31774,10 +31771,10 @@
         <v>1353</v>
       </c>
       <c r="B12" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C12" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -31785,10 +31782,10 @@
         <v>1354</v>
       </c>
       <c r="B13" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C13" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -31796,10 +31793,10 @@
         <v>1355</v>
       </c>
       <c r="B14" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C14" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -31807,10 +31804,10 @@
         <v>1356</v>
       </c>
       <c r="B15" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C15" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -31818,10 +31815,10 @@
         <v>1357</v>
       </c>
       <c r="B16" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C16" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -31829,10 +31826,10 @@
         <v>1358</v>
       </c>
       <c r="B17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C17" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -31840,10 +31837,10 @@
         <v>1359</v>
       </c>
       <c r="B18" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C18" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -31851,10 +31848,10 @@
         <v>1360</v>
       </c>
       <c r="B19" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C19" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -31862,10 +31859,10 @@
         <v>1361</v>
       </c>
       <c r="B20" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C20" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -31873,10 +31870,10 @@
         <v>1362</v>
       </c>
       <c r="B21" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C21" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -31884,10 +31881,10 @@
         <v>1363</v>
       </c>
       <c r="B22" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C22" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -31895,10 +31892,10 @@
         <v>1364</v>
       </c>
       <c r="B23" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C23" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -31906,10 +31903,10 @@
         <v>1365</v>
       </c>
       <c r="B24" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C24" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -31917,10 +31914,10 @@
         <v>1366</v>
       </c>
       <c r="B25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -31928,10 +31925,10 @@
         <v>1367</v>
       </c>
       <c r="B26" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C26" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -31939,10 +31936,10 @@
         <v>1368</v>
       </c>
       <c r="B27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -31950,10 +31947,10 @@
         <v>1369</v>
       </c>
       <c r="B28" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C28" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -31961,10 +31958,10 @@
         <v>1370</v>
       </c>
       <c r="B29" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C29" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -31972,10 +31969,10 @@
         <v>1371</v>
       </c>
       <c r="B30" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C30" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -31983,10 +31980,10 @@
         <v>1372</v>
       </c>
       <c r="B31" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C31" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -31994,10 +31991,10 @@
         <v>1373</v>
       </c>
       <c r="B32" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C32" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -32005,10 +32002,10 @@
         <v>1374</v>
       </c>
       <c r="B33" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C33" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -32016,10 +32013,10 @@
         <v>1375</v>
       </c>
       <c r="B34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -32027,10 +32024,10 @@
         <v>1376</v>
       </c>
       <c r="B35" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C35" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -32038,10 +32035,10 @@
         <v>1377</v>
       </c>
       <c r="B36" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C36" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -32049,10 +32046,10 @@
         <v>1378</v>
       </c>
       <c r="B37" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C37" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -32060,10 +32057,10 @@
         <v>1379</v>
       </c>
       <c r="B38" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C38" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -32071,10 +32068,10 @@
         <v>1380</v>
       </c>
       <c r="B39" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C39" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -32082,10 +32079,10 @@
         <v>1381</v>
       </c>
       <c r="B40" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C40" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -32093,10 +32090,10 @@
         <v>1382</v>
       </c>
       <c r="B41" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C41" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -32104,10 +32101,10 @@
         <v>1383</v>
       </c>
       <c r="B42" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C42" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -32115,10 +32112,10 @@
         <v>1384</v>
       </c>
       <c r="B43" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C43" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -32126,10 +32123,10 @@
         <v>1385</v>
       </c>
       <c r="B44" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C44" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -32137,10 +32134,10 @@
         <v>1386</v>
       </c>
       <c r="B45" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C45" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -32148,10 +32145,10 @@
         <v>1387</v>
       </c>
       <c r="B46" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C46" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -32159,10 +32156,10 @@
         <v>1388</v>
       </c>
       <c r="B47" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C47" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -32170,10 +32167,10 @@
         <v>1389</v>
       </c>
       <c r="B48" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C48" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -32181,10 +32178,10 @@
         <v>1390</v>
       </c>
       <c r="B49" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C49" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -32192,10 +32189,10 @@
         <v>1391</v>
       </c>
       <c r="B50" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C50" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -32203,10 +32200,10 @@
         <v>1392</v>
       </c>
       <c r="B51" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C51" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -32214,10 +32211,10 @@
         <v>1393</v>
       </c>
       <c r="B52" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C52" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -32225,10 +32222,10 @@
         <v>1394</v>
       </c>
       <c r="B53" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C53" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -32236,10 +32233,10 @@
         <v>1395</v>
       </c>
       <c r="B54" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C54" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -32247,10 +32244,10 @@
         <v>1396</v>
       </c>
       <c r="B55" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C55" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -32258,10 +32255,10 @@
         <v>1397</v>
       </c>
       <c r="B56" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C56" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -32269,10 +32266,10 @@
         <v>1398</v>
       </c>
       <c r="B57" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C57" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -32280,10 +32277,10 @@
         <v>1399</v>
       </c>
       <c r="B58" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C58" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -32291,10 +32288,10 @@
         <v>1400</v>
       </c>
       <c r="B59" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C59" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -32302,10 +32299,10 @@
         <v>1401</v>
       </c>
       <c r="B60" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C60" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -32313,10 +32310,10 @@
         <v>1402</v>
       </c>
       <c r="B61" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C61" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -32324,10 +32321,10 @@
         <v>1403</v>
       </c>
       <c r="B62" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C62" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -32335,10 +32332,10 @@
         <v>1404</v>
       </c>
       <c r="B63" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C63" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -32346,10 +32343,10 @@
         <v>1405</v>
       </c>
       <c r="B64" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C64" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -32357,10 +32354,10 @@
         <v>1406</v>
       </c>
       <c r="B65" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C65" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -32368,10 +32365,10 @@
         <v>1407</v>
       </c>
       <c r="B66" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C66" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -32379,10 +32376,10 @@
         <v>1408</v>
       </c>
       <c r="B67" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C67" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -32390,10 +32387,10 @@
         <v>1409</v>
       </c>
       <c r="B68" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C68" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -32401,10 +32398,10 @@
         <v>1410</v>
       </c>
       <c r="B69" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C69" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -32412,10 +32409,10 @@
         <v>1411</v>
       </c>
       <c r="B70" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C70" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -32423,10 +32420,10 @@
         <v>1412</v>
       </c>
       <c r="B71" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C71" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -32434,10 +32431,10 @@
         <v>1413</v>
       </c>
       <c r="B72" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C72" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -32445,10 +32442,10 @@
         <v>1414</v>
       </c>
       <c r="B73" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C73" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -32456,10 +32453,10 @@
         <v>1415</v>
       </c>
       <c r="B74" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C74" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -32467,10 +32464,10 @@
         <v>1416</v>
       </c>
       <c r="B75" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C75" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -32478,10 +32475,10 @@
         <v>1417</v>
       </c>
       <c r="B76" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C76" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -32489,10 +32486,10 @@
         <v>1418</v>
       </c>
       <c r="B77" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C77" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -32500,10 +32497,10 @@
         <v>1419</v>
       </c>
       <c r="B78" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C78" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -32511,10 +32508,10 @@
         <v>1420</v>
       </c>
       <c r="B79" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C79" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -32522,10 +32519,10 @@
         <v>1421</v>
       </c>
       <c r="B80" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C80" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -32544,10 +32541,10 @@
         <v>1423</v>
       </c>
       <c r="B82" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C82" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -32566,10 +32563,10 @@
         <v>1425</v>
       </c>
       <c r="B84" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C84" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -32588,10 +32585,10 @@
         <v>1427</v>
       </c>
       <c r="B86" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C86" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -32610,10 +32607,10 @@
         <v>1429</v>
       </c>
       <c r="B88" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C88" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -32632,10 +32629,10 @@
         <v>1431</v>
       </c>
       <c r="B90" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C90" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -32654,10 +32651,10 @@
         <v>1433</v>
       </c>
       <c r="B92" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C92" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -32676,10 +32673,10 @@
         <v>1435</v>
       </c>
       <c r="B94" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C94" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -32698,10 +32695,10 @@
         <v>1437</v>
       </c>
       <c r="B96" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C96" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -32720,10 +32717,10 @@
         <v>1439</v>
       </c>
       <c r="B98" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C98" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -32742,10 +32739,10 @@
         <v>1441</v>
       </c>
       <c r="B100" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C100" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -32764,10 +32761,10 @@
         <v>1443</v>
       </c>
       <c r="B102" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C102" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -32786,10 +32783,10 @@
         <v>1445</v>
       </c>
       <c r="B104" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C104" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -32808,10 +32805,10 @@
         <v>1447</v>
       </c>
       <c r="B106" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C106" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -32830,10 +32827,10 @@
         <v>1337</v>
       </c>
       <c r="B108" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C108" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -32852,10 +32849,10 @@
         <v>1339</v>
       </c>
       <c r="B110" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C110" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -32874,10 +32871,10 @@
         <v>1341</v>
       </c>
       <c r="B112" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C112" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -32896,10 +32893,10 @@
         <v>1343</v>
       </c>
       <c r="B114" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C114" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -32918,10 +32915,10 @@
         <v>1345</v>
       </c>
       <c r="B116" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C116" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -32940,10 +32937,10 @@
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C118" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -32962,10 +32959,10 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C120" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -32984,10 +32981,10 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C122" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -33006,10 +33003,10 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C124" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -33028,10 +33025,10 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C126" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -33050,10 +33047,10 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C128" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -33072,10 +33069,10 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C130" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -33094,10 +33091,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C132" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -33116,10 +33113,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C134" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -33138,10 +33135,10 @@
         <v>19</v>
       </c>
       <c r="B136" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C136" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -33160,10 +33157,10 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C138" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -33182,10 +33179,10 @@
         <v>23</v>
       </c>
       <c r="B140" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C140" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -33204,10 +33201,10 @@
         <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C142" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -33226,10 +33223,10 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C144" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -33248,10 +33245,10 @@
         <v>29</v>
       </c>
       <c r="B146" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C146" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -33270,10 +33267,10 @@
         <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C148" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -33292,10 +33289,10 @@
         <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C150" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -33314,10 +33311,10 @@
         <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C152" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -33336,10 +33333,10 @@
         <v>37</v>
       </c>
       <c r="B154" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C154" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -33358,10 +33355,10 @@
         <v>39</v>
       </c>
       <c r="B156" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C156" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -33380,10 +33377,10 @@
         <v>41</v>
       </c>
       <c r="B158" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C158" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -33402,10 +33399,10 @@
         <v>43</v>
       </c>
       <c r="B160" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C160" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -33424,10 +33421,10 @@
         <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C162" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -33446,10 +33443,10 @@
         <v>47</v>
       </c>
       <c r="B164" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C164" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -33468,10 +33465,10 @@
         <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C166" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -33490,10 +33487,10 @@
         <v>51</v>
       </c>
       <c r="B168" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C168" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -33512,10 +33509,10 @@
         <v>53</v>
       </c>
       <c r="B170" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C170" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -33534,10 +33531,10 @@
         <v>55</v>
       </c>
       <c r="B172" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C172" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -33556,10 +33553,10 @@
         <v>57</v>
       </c>
       <c r="B174" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C174" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -33578,10 +33575,10 @@
         <v>59</v>
       </c>
       <c r="B176" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C176" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -33762,7 +33759,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B193">
         <v>0.32632879247652702</v>
@@ -33773,7 +33770,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B194">
         <v>0.318091671312206</v>
@@ -33784,7 +33781,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B195">
         <v>0.33931677559039602</v>
@@ -33795,7 +33792,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B196">
         <v>0.326227492321014</v>
@@ -33806,7 +33803,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B197">
         <v>0.33137406495866201</v>
@@ -33817,7 +33814,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B198">
         <v>0.31058417187038501</v>
@@ -33828,7 +33825,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B199">
         <v>0.31103757258082099</v>
@@ -33839,7 +33836,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B200">
         <v>0.31103757258082099</v>
@@ -33850,13 +33847,13 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B201" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C201" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
   </sheetData>
@@ -33892,10 +33889,10 @@
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1335</v>
@@ -33903,7 +33900,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="50"/>
@@ -33911,7 +33908,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -33922,11 +33919,11 @@
         <v>1335</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -33962,10 +33959,10 @@
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1335</v>
@@ -33973,7 +33970,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="50"/>
@@ -33981,7 +33978,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -34032,10 +34029,10 @@
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1335</v>
@@ -34043,7 +34040,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="50"/>
@@ -34051,7 +34048,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -34064,7 +34061,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
   </sheetData>
@@ -34100,10 +34097,10 @@
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>1335</v>
@@ -34111,7 +34108,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="50"/>
@@ -34119,7 +34116,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -34155,10 +34152,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -35507,7 +35504,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
@@ -35519,7 +35516,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
@@ -35531,7 +35528,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
@@ -35543,7 +35540,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
@@ -35555,7 +35552,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
@@ -35567,7 +35564,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
@@ -35590,7 +35587,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35610,20 +35607,18 @@
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>1335</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>1317</v>
-      </c>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="39" t="s">
@@ -35632,9 +35627,7 @@
       <c r="C3" s="70">
         <v>0.3</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>1468</v>
-      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
@@ -35643,9 +35636,7 @@
       <c r="C4" s="70">
         <v>0.3</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>1315</v>
-      </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
@@ -35654,13 +35645,11 @@
       <c r="C5" s="70">
         <v>0.3</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>1311</v>
-      </c>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C6" s="70">
         <v>0.3</v>
@@ -35668,7 +35657,7 @@
     </row>
     <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C7" s="70">
         <v>0.3</v>
@@ -35676,7 +35665,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C8" s="70">
         <v>0.3</v>
@@ -35684,7 +35673,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C9" s="70">
         <v>0.3</v>
@@ -35692,7 +35681,7 @@
     </row>
     <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C10" s="70">
         <v>0.3</v>
@@ -35700,7 +35689,7 @@
     </row>
     <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C11" s="70">
         <v>0.3</v>
@@ -35708,7 +35697,7 @@
     </row>
     <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C12" s="70">
         <v>0.3</v>
@@ -35716,7 +35705,7 @@
     </row>
     <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C13" s="70">
         <v>0.3</v>
@@ -35724,7 +35713,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C14" s="70">
         <v>0.3</v>
@@ -35819,10 +35808,10 @@
     <row r="1" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>1335</v>
@@ -35866,7 +35855,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -35878,7 +35867,7 @@
     </row>
     <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -35887,7 +35876,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -35896,7 +35885,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -35905,7 +35894,7 @@
     </row>
     <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -35914,7 +35903,7 @@
     </row>
     <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C11" s="69" t="s">
         <v>1330</v>
@@ -35923,7 +35912,7 @@
     </row>
     <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>1330</v>
@@ -35932,7 +35921,7 @@
     </row>
     <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C13" s="69" t="s">
         <v>1330</v>
@@ -35941,7 +35930,7 @@
     </row>
     <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>1330</v>
@@ -36036,10 +36025,10 @@
     <row r="1" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>1335</v>
@@ -36074,7 +36063,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C6" s="62">
         <v>1</v>
@@ -36083,7 +36072,7 @@
     </row>
     <row r="7" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>1330</v>
@@ -36092,7 +36081,7 @@
     </row>
     <row r="8" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C8" s="64" t="s">
         <v>1330</v>
@@ -36101,7 +36090,7 @@
     </row>
     <row r="9" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>1330</v>
@@ -36110,7 +36099,7 @@
     </row>
     <row r="10" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>1330</v>
@@ -36119,7 +36108,7 @@
     </row>
     <row r="11" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>1330</v>
@@ -36128,7 +36117,7 @@
     </row>
     <row r="12" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>1330</v>
@@ -36137,7 +36126,7 @@
     </row>
     <row r="13" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>1330</v>
@@ -36146,7 +36135,7 @@
     </row>
     <row r="14" spans="2:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>1330</v>
@@ -36245,10 +36234,10 @@
     <row r="1" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>1335</v>
@@ -36262,7 +36251,7 @@
         <v>1290</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -36273,7 +36262,7 @@
         <v>1291</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -36284,7 +36273,7 @@
         <v>1292</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -36292,10 +36281,10 @@
     </row>
     <row r="6" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -36303,47 +36292,47 @@
     </row>
     <row r="7" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D7" s="37"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>1328</v>
@@ -36351,10 +36340,10 @@
     </row>
     <row r="12" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>1329</v>
@@ -36362,10 +36351,10 @@
     </row>
     <row r="13" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D13" s="33"/>
       <c r="G13" s="11" t="s">
@@ -36374,10 +36363,10 @@
     </row>
     <row r="14" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D14" s="33"/>
       <c r="G14" s="12"/>
@@ -36561,10 +36550,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="37" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>1597</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>1598</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>1335</v>
@@ -36573,7 +36562,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B2" s="65">
         <v>1018472.4426544399</v>
@@ -36588,7 +36577,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B3" s="65">
         <v>1038049.42616392</v>
@@ -36603,7 +36592,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B4" s="65">
         <v>1050555.3957616501</v>
@@ -36618,7 +36607,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B5" s="65">
         <v>1063281.63861869</v>
@@ -39621,7 +39610,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B194" s="65">
         <v>2790951.63227756</v>
@@ -39635,7 +39624,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="39" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B195" s="65">
         <v>2800712.59600945</v>
@@ -39649,7 +39638,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="39" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B196" s="65">
         <v>2806460.6485523102</v>
@@ -39663,7 +39652,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="39" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B197" s="65">
         <v>2816136.0066497298</v>
@@ -39677,7 +39666,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="39" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B198" s="65">
         <v>2827416.81816252</v>
@@ -39691,7 +39680,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="39" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B199" s="65">
         <v>2834059.2227666201</v>
@@ -39705,7 +39694,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="39" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B200" s="65">
         <v>2838397.0025135898</v>
@@ -39719,7 +39708,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="39" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B201" s="65">
         <v>2844390.44178912</v>
@@ -39733,7 +39722,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="39" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B202" s="65">
         <v>2852547.5786563801</v>
@@ -39747,7 +39736,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="39" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B203" s="65">
         <v>2862451.8150481498</v>
@@ -39761,7 +39750,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="39" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B204" s="65">
         <v>2872310.1673822701</v>
@@ -39775,7 +39764,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="39" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B205" s="65">
         <v>2882329.19932919</v>
@@ -39789,7 +39778,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="39" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B206" s="65">
         <v>2892678.30121047</v>
@@ -39803,7 +39792,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="39" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B207" s="65">
         <v>2903532.1568514099</v>
@@ -39817,7 +39806,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="39" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B208" s="65">
         <v>2914494.3111174302</v>
@@ -39831,7 +39820,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="39" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B209" s="65">
         <v>2925513.1936949599</v>
@@ -39845,7 +39834,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="39" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B210" s="65">
         <v>2936323.7202137401</v>
@@ -39859,7 +39848,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="39" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B211" s="65">
         <v>2946883.74166789</v>
@@ -39873,7 +39862,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="39" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B212" s="65">
         <v>2956982.9048101199</v>
@@ -39887,7 +39876,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B213" s="65">
         <v>2966384.49627076</v>
@@ -39935,31 +39924,31 @@
     <row r="1" spans="2:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>1469</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>1470</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>1471</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>1472</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>1473</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>1474</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>1475</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>1476</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>1477</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>1317</v>
@@ -40304,31 +40293,31 @@
     <row r="1" spans="2:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>1469</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>1470</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>1471</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>1472</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>1473</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>1474</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>1475</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>1476</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>1477</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>1321</v>
@@ -40348,7 +40337,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="K3" s="31" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>1318</v>
@@ -40368,7 +40357,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="K4" s="33" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>1319</v>
@@ -40388,7 +40377,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="K5" s="33" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>1311</v>
@@ -40408,7 +40397,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="K6" s="33" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M6" s="12"/>
     </row>
@@ -40426,7 +40415,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="K7" s="33" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M7" s="11"/>
     </row>
@@ -40444,7 +40433,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="K8" s="33" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -40460,10 +40449,10 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>1479</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -40481,10 +40470,10 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>1479</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -40502,7 +40491,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
@@ -40520,7 +40509,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -40538,7 +40527,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
@@ -40556,7 +40545,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
@@ -40574,7 +40563,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
@@ -40592,7 +40581,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
@@ -40610,7 +40599,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -40628,7 +40617,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -40669,31 +40658,31 @@
     <row r="1" spans="2:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="25" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>1469</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>1470</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>1471</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>1472</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>1473</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>1474</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>1475</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>1476</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>1477</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>1320</v>
@@ -40849,7 +40838,7 @@
         <v>1461</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -41042,16 +41031,16 @@
     <row r="2" spans="3:4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C3" s="77" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D3" s="78"/>
     </row>
     <row r="4" spans="3:4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="71" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>1630</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1631</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="14.45" x14ac:dyDescent="0.3">
